--- a/exports/yield_files/LU 5 Late-2.xlsx
+++ b/exports/yield_files/LU 5 Late-2.xlsx
@@ -681,9 +681,15 @@
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>66.45</v>
+      </c>
       <c r="R2" t="n">
         <v>2365.5</v>
       </c>
@@ -736,9 +742,15 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>43.86</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>66.66</v>
+      </c>
       <c r="R3" t="n">
         <v>2252.5</v>
       </c>
@@ -787,9 +799,15 @@
         <v>32</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="O4" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="P4" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>66.87</v>
+      </c>
       <c r="R4" t="n">
         <v>1946.5</v>
       </c>
@@ -885,9 +903,15 @@
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>44.91</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>68.81</v>
+      </c>
       <c r="R6" t="n">
         <v>2331.6</v>
       </c>
@@ -940,9 +964,15 @@
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="P7" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>68.59</v>
+      </c>
       <c r="R7" t="n">
         <v>1606.3</v>
       </c>
@@ -991,9 +1021,15 @@
         <v>35</v>
       </c>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="O8" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>68.29</v>
+      </c>
       <c r="R8" t="n">
         <v>2212</v>
       </c>
@@ -1089,9 +1125,15 @@
       <c r="N10" t="n">
         <v>3</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>42.71</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>66.84</v>
+      </c>
       <c r="R10" t="n">
         <v>2696.8</v>
       </c>
@@ -1144,9 +1186,15 @@
       <c r="N11" t="n">
         <v>2.5</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>65.69</v>
+      </c>
       <c r="R11" t="n">
         <v>1772.8</v>
       </c>
@@ -1195,9 +1243,15 @@
         <v>34</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="O12" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>66.35</v>
+      </c>
       <c r="R12" t="n">
         <v>1428.9</v>
       </c>
@@ -1293,9 +1347,15 @@
       <c r="N14" t="n">
         <v>1.5</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>67.64</v>
+      </c>
       <c r="R14" t="n">
         <v>2130.4</v>
       </c>
@@ -1348,9 +1408,15 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>66.58</v>
+      </c>
       <c r="R15" t="n">
         <v>2098.6</v>
       </c>
@@ -1399,9 +1465,15 @@
         <v>34</v>
       </c>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="O16" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="P16" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>68.28</v>
+      </c>
       <c r="R16" t="n">
         <v>1908.5</v>
       </c>
@@ -1497,9 +1569,15 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="P18" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>64.74</v>
+      </c>
       <c r="R18" t="n">
         <v>1721.4</v>
       </c>
@@ -1552,9 +1630,15 @@
       <c r="N19" t="n">
         <v>1.5</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>65.6</v>
+      </c>
       <c r="R19" t="n">
         <v>1749.5</v>
       </c>
@@ -1603,9 +1687,15 @@
         <v>41</v>
       </c>
       <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
+      <c r="O20" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="P20" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>65.92</v>
+      </c>
       <c r="R20" t="n">
         <v>1632.9</v>
       </c>
@@ -1701,9 +1791,15 @@
       <c r="N22" t="n">
         <v>1.5</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>45.92</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>66.78</v>
+      </c>
       <c r="R22" t="n">
         <v>2232.6</v>
       </c>
@@ -1756,9 +1852,15 @@
       <c r="N23" t="n">
         <v>1.5</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="P23" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>66.27</v>
+      </c>
       <c r="R23" t="n">
         <v>2161.8</v>
       </c>
@@ -1807,9 +1909,15 @@
         <v>34</v>
       </c>
       <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="O24" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="P24" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>67.49</v>
+      </c>
       <c r="R24" t="n">
         <v>2235</v>
       </c>
@@ -1905,9 +2013,15 @@
       <c r="N26" t="n">
         <v>1.5</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="P26" t="n">
+        <v>43.12</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65.89</v>
+      </c>
       <c r="R26" t="n">
         <v>2400.8</v>
       </c>
@@ -1960,9 +2074,15 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="P27" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>66.12</v>
+      </c>
       <c r="R27" t="n">
         <v>2267.5</v>
       </c>
@@ -2011,9 +2131,15 @@
         <v>31</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>65.2</v>
+      </c>
       <c r="R28" t="n">
         <v>2131</v>
       </c>
@@ -2109,9 +2235,15 @@
       <c r="N30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>66.45</v>
+      </c>
       <c r="R30" t="n">
         <v>2738.8</v>
       </c>
@@ -2164,9 +2296,15 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P31" t="n">
+        <v>42.85</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>65.59</v>
+      </c>
       <c r="R31" t="n">
         <v>2531.6</v>
       </c>
@@ -2215,9 +2353,15 @@
         <v>32</v>
       </c>
       <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="O32" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>41.27</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>64.77</v>
+      </c>
       <c r="R32" t="n">
         <v>1895.4</v>
       </c>
@@ -2313,9 +2457,15 @@
       <c r="N34" t="n">
         <v>2</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="P34" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>68.61</v>
+      </c>
       <c r="R34" t="n">
         <v>2381.4</v>
       </c>
@@ -2368,9 +2518,15 @@
       <c r="N35" t="n">
         <v>1.5</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="P35" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>68.27</v>
+      </c>
       <c r="R35" t="n">
         <v>2029.6</v>
       </c>
@@ -2419,9 +2575,15 @@
         <v>33</v>
       </c>
       <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
+      <c r="O36" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>67.45</v>
+      </c>
       <c r="R36" t="n">
         <v>2101.1</v>
       </c>
@@ -2517,9 +2679,15 @@
       <c r="N38" t="n">
         <v>2</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="P38" t="n">
+        <v>42.89</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>65.71</v>
+      </c>
       <c r="R38" t="n">
         <v>2397.3</v>
       </c>
@@ -2572,9 +2740,15 @@
       <c r="N39" t="n">
         <v>1.5</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="P39" t="n">
+        <v>43.42</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>66.89</v>
+      </c>
       <c r="R39" t="n">
         <v>1964.4</v>
       </c>
@@ -2623,9 +2797,15 @@
         <v>38</v>
       </c>
       <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
+      <c r="O40" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="P40" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>68.05</v>
+      </c>
       <c r="R40" t="n">
         <v>2358.1</v>
       </c>
@@ -2721,9 +2901,15 @@
       <c r="N42" t="n">
         <v>2</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="P42" t="n">
+        <v>40.83</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>65.6</v>
+      </c>
       <c r="R42" t="n">
         <v>2878.7</v>
       </c>
@@ -2776,9 +2962,15 @@
       <c r="N43" t="n">
         <v>1.5</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
+      <c r="O43" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>66.07</v>
+      </c>
       <c r="R43" t="n">
         <v>2041.1</v>
       </c>
@@ -2827,9 +3019,15 @@
         <v>34</v>
       </c>
       <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
+      <c r="O44" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="P44" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>66.33</v>
+      </c>
       <c r="R44" t="n">
         <v>2129.8</v>
       </c>
@@ -2925,9 +3123,15 @@
       <c r="N46" t="n">
         <v>1.5</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="P46" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>67.12</v>
+      </c>
       <c r="R46" t="n">
         <v>2553.8</v>
       </c>
@@ -2982,9 +3186,15 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P47" t="n">
+        <v>44.26</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>67</v>
+      </c>
       <c r="R47" t="n">
         <v>794.3</v>
       </c>
@@ -3033,9 +3243,15 @@
         <v>40</v>
       </c>
       <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
+      <c r="O48" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="P48" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>65.87</v>
+      </c>
       <c r="R48" t="n">
         <v>1822.4</v>
       </c>
@@ -3131,9 +3347,15 @@
       <c r="N50" t="n">
         <v>1.5</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="P50" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>66.06</v>
+      </c>
       <c r="R50" t="n">
         <v>2456</v>
       </c>
@@ -3186,9 +3408,15 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="P51" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>65.86</v>
+      </c>
       <c r="R51" t="n">
         <v>1691.3</v>
       </c>
@@ -3237,9 +3465,15 @@
         <v>40</v>
       </c>
       <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
+      <c r="O52" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="P52" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>67.43</v>
+      </c>
       <c r="R52" t="n">
         <v>1760.2</v>
       </c>
@@ -3335,9 +3569,15 @@
       <c r="N54" t="n">
         <v>1.5</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="P54" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>66.94</v>
+      </c>
       <c r="R54" t="n">
         <v>2766.1</v>
       </c>
@@ -3390,9 +3630,15 @@
       <c r="N55" t="n">
         <v>1.5</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
+      <c r="O55" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="P55" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>67.28</v>
+      </c>
       <c r="R55" t="n">
         <v>1832</v>
       </c>
@@ -3441,9 +3687,15 @@
         <v>37</v>
       </c>
       <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
+      <c r="O56" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="P56" t="n">
+        <v>42.74</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>67.13</v>
+      </c>
       <c r="R56" t="n">
         <v>2026.4</v>
       </c>
@@ -3541,9 +3793,15 @@
       <c r="N58" t="n">
         <v>2</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>66.88</v>
+      </c>
       <c r="R58" t="n">
         <v>483.3</v>
       </c>
@@ -3598,9 +3856,15 @@
       <c r="N59" t="n">
         <v>1.5</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="P59" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>66.4</v>
+      </c>
       <c r="R59" t="n">
         <v>456.2</v>
       </c>
@@ -3649,9 +3913,15 @@
         <v>28</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
+      <c r="O60" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="P60" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>66.43</v>
+      </c>
       <c r="R60" t="n">
         <v>1193.1</v>
       </c>
@@ -3747,9 +4017,15 @@
       <c r="N62" t="n">
         <v>2</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="P62" t="n">
+        <v>46.27</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>67.82</v>
+      </c>
       <c r="R62" t="n">
         <v>2548.5</v>
       </c>
@@ -3802,9 +4078,15 @@
       <c r="N63" t="n">
         <v>1.5</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="P63" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>67.68</v>
+      </c>
       <c r="R63" t="n">
         <v>2063.7</v>
       </c>
@@ -3853,9 +4135,15 @@
         <v>40</v>
       </c>
       <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
+      <c r="O64" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="P64" t="n">
+        <v>44.41</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>66.81</v>
+      </c>
       <c r="R64" t="n">
         <v>2008.8</v>
       </c>
@@ -3951,9 +4239,15 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="P66" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>65.84</v>
+      </c>
       <c r="R66" t="n">
         <v>1722.4</v>
       </c>
@@ -4006,9 +4300,15 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="O67" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>43.13</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>65.78</v>
+      </c>
       <c r="R67" t="n">
         <v>2082.8</v>
       </c>
@@ -4057,9 +4357,15 @@
         <v>32</v>
       </c>
       <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="O68" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="P68" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>65.66</v>
+      </c>
       <c r="R68" t="n">
         <v>1729.2</v>
       </c>
@@ -4155,9 +4461,15 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P70" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>67.13</v>
+      </c>
       <c r="R70" t="n">
         <v>2655.4</v>
       </c>
@@ -4210,9 +4522,15 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P71" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>67.13</v>
+      </c>
       <c r="R71" t="n">
         <v>2655.4</v>
       </c>
@@ -4265,9 +4583,15 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
+      <c r="O72" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P72" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>67.13</v>
+      </c>
       <c r="R72" t="n">
         <v>2655.4</v>
       </c>
@@ -4320,9 +4644,15 @@
       <c r="N73" t="n">
         <v>1</v>
       </c>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
+      <c r="O73" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P73" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>67.13</v>
+      </c>
       <c r="R73" t="n">
         <v>2655.4</v>
       </c>
@@ -4375,9 +4705,15 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>66.31</v>
+      </c>
       <c r="R74" t="n">
         <v>2118.5</v>
       </c>
@@ -4430,9 +4766,15 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="O75" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>66.31</v>
+      </c>
       <c r="R75" t="n">
         <v>2118.5</v>
       </c>
@@ -4481,9 +4823,15 @@
         <v>32</v>
       </c>
       <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="O76" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="P76" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>67.71</v>
+      </c>
       <c r="R76" t="n">
         <v>2315.1</v>
       </c>
@@ -4579,9 +4927,15 @@
       <c r="N78" t="n">
         <v>1.5</v>
       </c>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="P78" t="n">
+        <v>40.94</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>64.83</v>
+      </c>
       <c r="R78" t="n">
         <v>1313.2</v>
       </c>
@@ -4634,9 +4988,15 @@
       <c r="N79" t="n">
         <v>1.5</v>
       </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="O79" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="P79" t="n">
+        <v>40.94</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>64.83</v>
+      </c>
       <c r="R79" t="n">
         <v>1313.2</v>
       </c>
@@ -4689,9 +5049,15 @@
       <c r="N80" t="n">
         <v>1.5</v>
       </c>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="O80" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="P80" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>66.12</v>
+      </c>
       <c r="R80" t="n">
         <v>1240.9</v>
       </c>
@@ -4744,9 +5110,15 @@
       <c r="N81" t="n">
         <v>1.5</v>
       </c>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="O81" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="P81" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>66.12</v>
+      </c>
       <c r="R81" t="n">
         <v>1240.9</v>
       </c>
@@ -4795,9 +5167,15 @@
         <v>36</v>
       </c>
       <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="O82" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="P82" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>64.94</v>
+      </c>
       <c r="R82" t="n">
         <v>2198.8</v>
       </c>
@@ -4893,9 +5271,15 @@
       <c r="N84" t="n">
         <v>1.5</v>
       </c>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
+      <c r="O84" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="P84" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>66.63</v>
+      </c>
       <c r="R84" t="n">
         <v>2713.7</v>
       </c>
@@ -4948,9 +5332,15 @@
       <c r="N85" t="n">
         <v>1</v>
       </c>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
+      <c r="O85" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="P85" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>66.3</v>
+      </c>
       <c r="R85" t="n">
         <v>1472.2</v>
       </c>
@@ -4999,9 +5389,15 @@
         <v>32</v>
       </c>
       <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="O86" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="P86" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>66.77</v>
+      </c>
       <c r="R86" t="n">
         <v>2090.7</v>
       </c>
@@ -5097,9 +5493,15 @@
       <c r="N88" t="n">
         <v>1</v>
       </c>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
+      <c r="O88" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="P88" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>65.95</v>
+      </c>
       <c r="R88" t="n">
         <v>1707.5</v>
       </c>
@@ -5152,9 +5554,15 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
-      <c r="O89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
+      <c r="O89" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="P89" t="n">
+        <v>44.83</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>66.19</v>
+      </c>
       <c r="R89" t="n">
         <v>1391.3</v>
       </c>
@@ -5203,9 +5611,15 @@
         <v>36</v>
       </c>
       <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+      <c r="O90" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="P90" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>66.39</v>
+      </c>
       <c r="R90" t="n">
         <v>1826.7</v>
       </c>
@@ -5301,9 +5715,15 @@
       <c r="N92" t="n">
         <v>1.5</v>
       </c>
-      <c r="O92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
+      <c r="O92" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="P92" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>66.6</v>
+      </c>
       <c r="R92" t="n">
         <v>2671.8</v>
       </c>
@@ -5356,9 +5776,15 @@
       <c r="N93" t="n">
         <v>1</v>
       </c>
-      <c r="O93"/>
-      <c r="P93"/>
-      <c r="Q93"/>
+      <c r="O93" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="P93" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>66.26</v>
+      </c>
       <c r="R93" t="n">
         <v>2321</v>
       </c>
@@ -5407,9 +5833,15 @@
         <v>33</v>
       </c>
       <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="O94" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="P94" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>65.89</v>
+      </c>
       <c r="R94" t="n">
         <v>1519.1</v>
       </c>
@@ -5505,9 +5937,15 @@
       <c r="N96" t="n">
         <v>1.5</v>
       </c>
-      <c r="O96"/>
-      <c r="P96"/>
-      <c r="Q96"/>
+      <c r="O96" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="P96" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>66.17</v>
+      </c>
       <c r="R96" t="n">
         <v>1828.1</v>
       </c>
@@ -5560,9 +5998,15 @@
       <c r="N97" t="n">
         <v>1.5</v>
       </c>
-      <c r="O97"/>
-      <c r="P97"/>
-      <c r="Q97"/>
+      <c r="O97" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="P97" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>66.53</v>
+      </c>
       <c r="R97" t="n">
         <v>1728.5</v>
       </c>
@@ -5611,9 +6055,15 @@
         <v>32</v>
       </c>
       <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="O98" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="P98" t="n">
+        <v>40.75</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>65.57</v>
+      </c>
       <c r="R98" t="n">
         <v>2165.9</v>
       </c>
@@ -5709,9 +6159,15 @@
       <c r="N100" t="n">
         <v>1.5</v>
       </c>
-      <c r="O100"/>
-      <c r="P100"/>
-      <c r="Q100"/>
+      <c r="O100" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="P100" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>66.33</v>
+      </c>
       <c r="R100" t="n">
         <v>3099.8</v>
       </c>
@@ -5764,9 +6220,15 @@
       <c r="N101" t="n">
         <v>1</v>
       </c>
-      <c r="O101"/>
-      <c r="P101"/>
-      <c r="Q101"/>
+      <c r="O101" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="P101" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>65.61</v>
+      </c>
       <c r="R101" t="n">
         <v>2230.6</v>
       </c>
@@ -5815,9 +6277,15 @@
         <v>33</v>
       </c>
       <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
+      <c r="O102" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="P102" t="n">
+        <v>42.96</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>66.23</v>
+      </c>
       <c r="R102" t="n">
         <v>2480.4</v>
       </c>
@@ -5913,9 +6381,15 @@
       <c r="N104" t="n">
         <v>1.5</v>
       </c>
-      <c r="O104"/>
-      <c r="P104"/>
-      <c r="Q104"/>
+      <c r="O104" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="P104" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>66.03</v>
+      </c>
       <c r="R104" t="n">
         <v>2128.8</v>
       </c>
@@ -5968,9 +6442,15 @@
       <c r="N105" t="n">
         <v>1</v>
       </c>
-      <c r="O105"/>
-      <c r="P105"/>
-      <c r="Q105"/>
+      <c r="O105" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="P105" t="n">
+        <v>44.53</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>66.66</v>
+      </c>
       <c r="R105" t="n">
         <v>2109.9</v>
       </c>
@@ -6019,9 +6499,15 @@
         <v>48</v>
       </c>
       <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
+      <c r="O106" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="P106" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>67.64</v>
+      </c>
       <c r="R106" t="n">
         <v>1920.3</v>
       </c>
@@ -6117,9 +6603,15 @@
       <c r="N108" t="n">
         <v>1.5</v>
       </c>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
+      <c r="O108" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="P108" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>67.57</v>
+      </c>
       <c r="R108" t="n">
         <v>2896.2</v>
       </c>
@@ -6172,9 +6664,15 @@
       <c r="N109" t="n">
         <v>1</v>
       </c>
-      <c r="O109"/>
-      <c r="P109"/>
-      <c r="Q109"/>
+      <c r="O109" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="P109" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>67.6</v>
+      </c>
       <c r="R109" t="n">
         <v>2216.3</v>
       </c>
@@ -6223,9 +6721,15 @@
         <v>35</v>
       </c>
       <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
+      <c r="O110" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="P110" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>66.39</v>
+      </c>
       <c r="R110" t="n">
         <v>2053.4</v>
       </c>
@@ -6321,9 +6825,15 @@
       <c r="N112" t="n">
         <v>1.5</v>
       </c>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
+      <c r="O112" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="P112" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>67.41</v>
+      </c>
       <c r="R112" t="n">
         <v>2307.2</v>
       </c>
@@ -6376,9 +6886,15 @@
       <c r="N113" t="n">
         <v>1</v>
       </c>
-      <c r="O113"/>
-      <c r="P113"/>
-      <c r="Q113"/>
+      <c r="O113" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="P113" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>67.27</v>
+      </c>
       <c r="R113" t="n">
         <v>2365</v>
       </c>
@@ -6427,9 +6943,15 @@
         <v>38</v>
       </c>
       <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
+      <c r="O114" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="P114" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>67.36</v>
+      </c>
       <c r="R114" t="n">
         <v>1952.5</v>
       </c>
@@ -6525,9 +7047,15 @@
       <c r="N116" t="n">
         <v>1.5</v>
       </c>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116"/>
+      <c r="O116" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="P116" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>66.83</v>
+      </c>
       <c r="R116" t="n">
         <v>2865.6</v>
       </c>
@@ -6580,9 +7108,15 @@
       <c r="N117" t="n">
         <v>1.5</v>
       </c>
-      <c r="O117"/>
-      <c r="P117"/>
-      <c r="Q117"/>
+      <c r="O117" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="P117" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>65.52</v>
+      </c>
       <c r="R117" t="n">
         <v>2195.6</v>
       </c>
@@ -6631,9 +7165,15 @@
         <v>32</v>
       </c>
       <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
+      <c r="O118" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="P118" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>66.81</v>
+      </c>
       <c r="R118" t="n">
         <v>1189</v>
       </c>
@@ -6729,9 +7269,15 @@
       <c r="N120" t="n">
         <v>1</v>
       </c>
-      <c r="O120"/>
-      <c r="P120"/>
-      <c r="Q120"/>
+      <c r="O120" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P120" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>66.08</v>
+      </c>
       <c r="R120" t="n">
         <v>2775.7</v>
       </c>
@@ -6784,9 +7330,15 @@
       <c r="N121" t="n">
         <v>1</v>
       </c>
-      <c r="O121"/>
-      <c r="P121"/>
-      <c r="Q121"/>
+      <c r="O121" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="P121" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>65.63</v>
+      </c>
       <c r="R121" t="n">
         <v>2537.9</v>
       </c>
@@ -6835,9 +7387,15 @@
         <v>30</v>
       </c>
       <c r="N122"/>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
+      <c r="O122" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P122" t="n">
+        <v>42.62</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>65.86</v>
+      </c>
       <c r="R122" t="n">
         <v>2091.1</v>
       </c>
@@ -6933,9 +7491,15 @@
       <c r="N124" t="n">
         <v>1</v>
       </c>
-      <c r="O124"/>
-      <c r="P124"/>
-      <c r="Q124"/>
+      <c r="O124" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="P124" t="n">
+        <v>43.86</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>67.59</v>
+      </c>
       <c r="R124" t="n">
         <v>1953.3</v>
       </c>
@@ -6988,9 +7552,15 @@
       <c r="N125" t="n">
         <v>1</v>
       </c>
-      <c r="O125"/>
-      <c r="P125"/>
-      <c r="Q125"/>
+      <c r="O125" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="P125" t="n">
+        <v>43.43</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>67.25</v>
+      </c>
       <c r="R125" t="n">
         <v>1406</v>
       </c>
@@ -7039,9 +7609,15 @@
         <v>34</v>
       </c>
       <c r="N126"/>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
+      <c r="O126" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="P126" t="n">
+        <v>44.21</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>67.53</v>
+      </c>
       <c r="R126" t="n">
         <v>1948.6</v>
       </c>
@@ -7137,9 +7713,15 @@
       <c r="N128" t="n">
         <v>1.5</v>
       </c>
-      <c r="O128"/>
-      <c r="P128"/>
-      <c r="Q128"/>
+      <c r="O128" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="P128" t="n">
+        <v>38.39</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>62.8</v>
+      </c>
       <c r="R128" t="n">
         <v>2330.9</v>
       </c>
@@ -7192,9 +7774,15 @@
       <c r="N129" t="n">
         <v>1.5</v>
       </c>
-      <c r="O129"/>
-      <c r="P129"/>
-      <c r="Q129"/>
+      <c r="O129" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="P129" t="n">
+        <v>38.02</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>62.05</v>
+      </c>
       <c r="R129" t="n">
         <v>1918.9</v>
       </c>
@@ -7243,9 +7831,15 @@
         <v>34</v>
       </c>
       <c r="N130"/>
-      <c r="O130"/>
-      <c r="P130"/>
-      <c r="Q130"/>
+      <c r="O130" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="P130" t="n">
+        <v>39.03</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>62.97</v>
+      </c>
       <c r="R130" t="n">
         <v>2193.1</v>
       </c>
@@ -7341,9 +7935,15 @@
       <c r="N132" t="n">
         <v>1.5</v>
       </c>
-      <c r="O132"/>
-      <c r="P132"/>
-      <c r="Q132"/>
+      <c r="O132" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="P132" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>62.92</v>
+      </c>
       <c r="R132" t="n">
         <v>2393.2</v>
       </c>
@@ -7396,9 +7996,15 @@
       <c r="N133" t="n">
         <v>1.5</v>
       </c>
-      <c r="O133"/>
-      <c r="P133"/>
-      <c r="Q133"/>
+      <c r="O133" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="P133" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>64.71</v>
+      </c>
       <c r="R133" t="n">
         <v>2038</v>
       </c>
@@ -7447,9 +8053,15 @@
         <v>42</v>
       </c>
       <c r="N134"/>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
+      <c r="O134" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="P134" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>64.09</v>
+      </c>
       <c r="R134" t="n">
         <v>1845</v>
       </c>
@@ -7545,9 +8157,15 @@
       <c r="N136" t="n">
         <v>1.5</v>
       </c>
-      <c r="O136"/>
-      <c r="P136"/>
-      <c r="Q136"/>
+      <c r="O136" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="P136" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>67.07</v>
+      </c>
       <c r="R136" t="n">
         <v>2787.9</v>
       </c>
@@ -7600,9 +8218,15 @@
       <c r="N137" t="n">
         <v>1.5</v>
       </c>
-      <c r="O137"/>
-      <c r="P137"/>
-      <c r="Q137"/>
+      <c r="O137" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="P137" t="n">
+        <v>43.26</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>66.85</v>
+      </c>
       <c r="R137" t="n">
         <v>1935.2</v>
       </c>
@@ -7651,9 +8275,15 @@
         <v>32</v>
       </c>
       <c r="N138"/>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
+      <c r="O138" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="P138" t="n">
+        <v>43.65</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>67.18</v>
+      </c>
       <c r="R138" t="n">
         <v>1989.7</v>
       </c>
@@ -7749,9 +8379,15 @@
       <c r="N140" t="n">
         <v>1.5</v>
       </c>
-      <c r="O140"/>
-      <c r="P140"/>
-      <c r="Q140"/>
+      <c r="O140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="P140" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>65.7</v>
+      </c>
       <c r="R140" t="n">
         <v>2696.5</v>
       </c>
@@ -7804,9 +8440,15 @@
       <c r="N141" t="n">
         <v>1</v>
       </c>
-      <c r="O141"/>
-      <c r="P141"/>
-      <c r="Q141"/>
+      <c r="O141" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="P141" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>66.33</v>
+      </c>
       <c r="R141" t="n">
         <v>2288.6</v>
       </c>
@@ -7855,9 +8497,15 @@
         <v>34</v>
       </c>
       <c r="N142"/>
-      <c r="O142"/>
-      <c r="P142"/>
-      <c r="Q142"/>
+      <c r="O142" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="P142" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>67.04</v>
+      </c>
       <c r="R142" t="n">
         <v>1935.7</v>
       </c>
@@ -7953,9 +8601,15 @@
       <c r="N144" t="n">
         <v>2</v>
       </c>
-      <c r="O144"/>
-      <c r="P144"/>
-      <c r="Q144"/>
+      <c r="O144" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="P144" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>66.73</v>
+      </c>
       <c r="R144" t="n">
         <v>2548.5</v>
       </c>
@@ -8008,9 +8662,15 @@
       <c r="N145" t="n">
         <v>2</v>
       </c>
-      <c r="O145"/>
-      <c r="P145"/>
-      <c r="Q145"/>
+      <c r="O145" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="P145" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>65.52</v>
+      </c>
       <c r="R145" t="n">
         <v>2040.9</v>
       </c>
@@ -8059,9 +8719,15 @@
         <v>39</v>
       </c>
       <c r="N146"/>
-      <c r="O146"/>
-      <c r="P146"/>
-      <c r="Q146"/>
+      <c r="O146" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="P146" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>65.96</v>
+      </c>
       <c r="R146" t="n">
         <v>2200.2</v>
       </c>
@@ -8157,9 +8823,15 @@
       <c r="N148" t="n">
         <v>1</v>
       </c>
-      <c r="O148"/>
-      <c r="P148"/>
-      <c r="Q148"/>
+      <c r="O148" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="P148" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>66.09</v>
+      </c>
       <c r="R148" t="n">
         <v>2825.7</v>
       </c>
@@ -8212,9 +8884,15 @@
       <c r="N149" t="n">
         <v>1</v>
       </c>
-      <c r="O149"/>
-      <c r="P149"/>
-      <c r="Q149"/>
+      <c r="O149" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="P149" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>65.57</v>
+      </c>
       <c r="R149" t="n">
         <v>2161</v>
       </c>
@@ -8263,9 +8941,15 @@
         <v>25</v>
       </c>
       <c r="N150"/>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
+      <c r="O150" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="P150" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>65.23</v>
+      </c>
       <c r="R150" t="n">
         <v>1854.1</v>
       </c>
@@ -8361,9 +9045,15 @@
       <c r="N152" t="n">
         <v>1.5</v>
       </c>
-      <c r="O152"/>
-      <c r="P152"/>
-      <c r="Q152"/>
+      <c r="O152" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="P152" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>63.88</v>
+      </c>
       <c r="R152" t="n">
         <v>2546.9</v>
       </c>
@@ -8416,9 +9106,15 @@
       <c r="N153" t="n">
         <v>1.5</v>
       </c>
-      <c r="O153"/>
-      <c r="P153"/>
-      <c r="Q153"/>
+      <c r="O153" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="P153" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>64.82</v>
+      </c>
       <c r="R153" t="n">
         <v>850.4</v>
       </c>
@@ -8467,9 +9163,15 @@
         <v>31</v>
       </c>
       <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
+      <c r="O154" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="P154" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>64.72</v>
+      </c>
       <c r="R154" t="n">
         <v>2366</v>
       </c>
@@ -8565,9 +9267,15 @@
       <c r="N156" t="n">
         <v>1</v>
       </c>
-      <c r="O156"/>
-      <c r="P156"/>
-      <c r="Q156"/>
+      <c r="O156" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P156" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>63.63</v>
+      </c>
       <c r="R156" t="n">
         <v>2417.5</v>
       </c>
@@ -8620,9 +9328,15 @@
       <c r="N157" t="n">
         <v>1</v>
       </c>
-      <c r="O157"/>
-      <c r="P157"/>
-      <c r="Q157"/>
+      <c r="O157" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="P157" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>63.37</v>
+      </c>
       <c r="R157" t="n">
         <v>1573.1</v>
       </c>
@@ -8671,9 +9385,15 @@
         <v>29</v>
       </c>
       <c r="N158"/>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
+      <c r="O158" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="P158" t="n">
+        <v>41.01</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>64.58</v>
+      </c>
       <c r="R158" t="n">
         <v>1984.6</v>
       </c>
@@ -8769,9 +9489,15 @@
       <c r="N160" t="n">
         <v>1</v>
       </c>
-      <c r="O160"/>
-      <c r="P160"/>
-      <c r="Q160"/>
+      <c r="O160" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="P160" t="n">
+        <v>40.66</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>62.31</v>
+      </c>
       <c r="R160" t="n">
         <v>2375.4</v>
       </c>
@@ -8824,9 +9550,15 @@
       <c r="N161" t="n">
         <v>1</v>
       </c>
-      <c r="O161"/>
-      <c r="P161"/>
-      <c r="Q161"/>
+      <c r="O161" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="P161" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>64.56</v>
+      </c>
       <c r="R161" t="n">
         <v>2123.5</v>
       </c>
@@ -8875,9 +9607,15 @@
         <v>27</v>
       </c>
       <c r="N162"/>
-      <c r="O162"/>
-      <c r="P162"/>
-      <c r="Q162"/>
+      <c r="O162" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="P162" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>64.5</v>
+      </c>
       <c r="R162" t="n">
         <v>1397.4</v>
       </c>
@@ -8973,9 +9711,15 @@
       <c r="N164" t="n">
         <v>1.5</v>
       </c>
-      <c r="O164"/>
-      <c r="P164"/>
-      <c r="Q164"/>
+      <c r="O164" t="n">
+        <v>23</v>
+      </c>
+      <c r="P164" t="n">
+        <v>44.28</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>67.28</v>
+      </c>
       <c r="R164" t="n">
         <v>2584.1</v>
       </c>
@@ -9028,9 +9772,15 @@
       <c r="N165" t="n">
         <v>1.5</v>
       </c>
-      <c r="O165"/>
-      <c r="P165"/>
-      <c r="Q165"/>
+      <c r="O165" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="P165" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>66.62</v>
+      </c>
       <c r="R165" t="n">
         <v>1252</v>
       </c>
@@ -9079,9 +9829,15 @@
         <v>32</v>
       </c>
       <c r="N166"/>
-      <c r="O166"/>
-      <c r="P166"/>
-      <c r="Q166"/>
+      <c r="O166" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="P166" t="n">
+        <v>42.85</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>66.6</v>
+      </c>
       <c r="R166" t="n">
         <v>1707.8</v>
       </c>
